--- a/console/Elastic-Compute/Virtual-Machine/components/createBox/create_InstanceTypeBox.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/createBox/create_InstanceTypeBox.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>specification</t>
   </si>
@@ -108,9 +108,6 @@
     <t>no_usable</t>
   </si>
   <si>
-    <t>No Available</t>
-  </si>
-  <si>
     <t>current_select</t>
   </si>
   <si>
@@ -120,27 +117,15 @@
     <t>tips_one</t>
   </si>
   <si>
-    <t xml:space="preserve">'Attention please: Only the instance template configured with the type of second generation virtual machine supports creating availability group,' </t>
-  </si>
-  <si>
     <t>tips_two</t>
   </si>
   <si>
-    <t>Select different instance types according to specific business situations</t>
-  </si>
-  <si>
     <t>tips_three</t>
   </si>
   <si>
-    <t>specifications type details</t>
-  </si>
-  <si>
     <t>tips_four</t>
   </si>
   <si>
-    <t>can be referred to</t>
-  </si>
-  <si>
     <t>container</t>
   </si>
   <si>
@@ -180,15 +165,9 @@
     <t>sellOut_tips_one</t>
   </si>
   <si>
-    <t>The selected types have been</t>
-  </si>
-  <si>
     <t>sellOut_tips_two</t>
   </si>
   <si>
-    <t>Sold out</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -306,77 +285,11 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>无可用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>当前选择实例</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>根据具体业务情况选择不同</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>规格类型，可参考</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>规格类型详情</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>所选规格在</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>已售罄</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>'</t>
     </r>
     <r>
@@ -624,6 +537,34 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>根据具体业务情况选择不同xxx规格类型，可参考&lt;a&gt;规格类型详情&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select xxx different instance types according to specific business, please refer to &lt;a&gt; Instance Type&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选规格在xxx已售罄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The selected types have been sold out in xxx.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无可用xxx规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No available XXX Instance Type.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Please note that only the instance template configured with second generation VM Instance type supports creating AG,' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -678,9 +619,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1022,15 +981,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="162.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1038,10 +997,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1049,10 +1008,10 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1060,10 +1019,10 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1071,10 +1030,10 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1082,10 +1041,10 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1093,10 +1052,10 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1104,10 +1063,10 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1115,10 +1074,10 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1126,10 +1085,10 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1137,10 +1096,10 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1148,21 +1107,21 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1170,10 +1129,10 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1181,10 +1140,10 @@
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1192,162 +1151,156 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C28 A1:A28" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C14 A1:A28 C21:C26 C16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>